--- a/artfynd/A 36422-2021.xlsx
+++ b/artfynd/A 36422-2021.xlsx
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>333037.867241394</v>
+        <v>333038</v>
       </c>
       <c r="R2" t="n">
-        <v>6626636.819968392</v>
+        <v>6626637</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,19 +756,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -795,10 +785,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112206837</v>
+        <v>112206831</v>
       </c>
       <c r="B3" t="n">
-        <v>90684</v>
+        <v>90668</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -811,21 +801,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4368</v>
+        <v>788</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -838,10 +828,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>333037.867241394</v>
+        <v>333038</v>
       </c>
       <c r="R3" t="n">
-        <v>6626636.819968392</v>
+        <v>6626637</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -871,19 +861,14 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Örtrikt dråg i granskog</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,10 +895,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112206831</v>
+        <v>112206837</v>
       </c>
       <c r="B4" t="n">
-        <v>90668</v>
+        <v>90684</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,21 +911,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>788</v>
+        <v>4368</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,10 +938,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>333037.867241394</v>
+        <v>333038</v>
       </c>
       <c r="R4" t="n">
-        <v>6626636.819968392</v>
+        <v>6626637</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,24 +971,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Örtrikt dråg i granskog</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 36422-2021.xlsx
+++ b/artfynd/A 36422-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112206846</v>
+        <v>112206837</v>
       </c>
       <c r="B2" t="n">
-        <v>90658</v>
+        <v>90818</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4361</v>
+        <v>4368</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -788,7 +788,7 @@
         <v>112206831</v>
       </c>
       <c r="B3" t="n">
-        <v>90668</v>
+        <v>90802</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112206837</v>
+        <v>112206846</v>
       </c>
       <c r="B4" t="n">
-        <v>90684</v>
+        <v>90792</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -911,21 +911,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4368</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -998,6 +998,414 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112395257</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90802</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>788</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gul taggsvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hydnellum geogenium</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Fr.) Banker</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>333022</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6626625</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112395259</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90792</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>333042</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6626628</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112395256</v>
+      </c>
+      <c r="B7" t="n">
+        <v>93293</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2671</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fällmossa</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Antitrichia curtipendula</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Hedw.) Brid.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>333013</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6626631</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112395260</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90818</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4368</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hydnellum suaveolens</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>333038</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6626631</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 36422-2021.xlsx
+++ b/artfynd/A 36422-2021.xlsx
@@ -683,7 +683,7 @@
         <v>112206837</v>
       </c>
       <c r="B2" t="n">
-        <v>90818</v>
+        <v>90832</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -785,10 +785,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112206831</v>
+        <v>112206846</v>
       </c>
       <c r="B3" t="n">
-        <v>90802</v>
+        <v>90806</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -801,21 +801,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>788</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -866,11 +866,6 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Örtrikt dråg i granskog</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -895,10 +890,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112206846</v>
+        <v>112206831</v>
       </c>
       <c r="B4" t="n">
-        <v>90792</v>
+        <v>90816</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -911,21 +906,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>788</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -976,6 +971,11 @@
           <t>2023-09-19</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Örtrikt dråg i granskog</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112395257</v>
+        <v>112395260</v>
       </c>
       <c r="B5" t="n">
-        <v>90802</v>
+        <v>90832</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1016,21 +1016,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>788</v>
+        <v>4368</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>333022</v>
+        <v>333038</v>
       </c>
       <c r="R5" t="n">
-        <v>6626625</v>
+        <v>6626631</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1105,7 +1105,7 @@
         <v>112395259</v>
       </c>
       <c r="B6" t="n">
-        <v>90792</v>
+        <v>90806</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>112395256</v>
       </c>
       <c r="B7" t="n">
-        <v>93293</v>
+        <v>93307</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,10 +1306,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112395260</v>
+        <v>112395257</v>
       </c>
       <c r="B8" t="n">
-        <v>90818</v>
+        <v>90816</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1322,21 +1322,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4368</v>
+        <v>788</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>333038</v>
+        <v>333022</v>
       </c>
       <c r="R8" t="n">
-        <v>6626631</v>
+        <v>6626625</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>

--- a/artfynd/A 36422-2021.xlsx
+++ b/artfynd/A 36422-2021.xlsx
@@ -1000,10 +1000,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112395260</v>
+        <v>112395259</v>
       </c>
       <c r="B5" t="n">
-        <v>90832</v>
+        <v>90806</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1016,21 +1016,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4368</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>333038</v>
+        <v>333042</v>
       </c>
       <c r="R5" t="n">
-        <v>6626631</v>
+        <v>6626628</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112395259</v>
+        <v>112395257</v>
       </c>
       <c r="B6" t="n">
-        <v>90806</v>
+        <v>90816</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1118,21 +1118,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>788</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>333042</v>
+        <v>333022</v>
       </c>
       <c r="R6" t="n">
-        <v>6626628</v>
+        <v>6626625</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112395256</v>
+        <v>112395260</v>
       </c>
       <c r="B7" t="n">
-        <v>93307</v>
+        <v>90832</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1216,25 +1216,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2671</v>
+        <v>4368</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>333013</v>
+        <v>333038</v>
       </c>
       <c r="R7" t="n">
         <v>6626631</v>
@@ -1306,10 +1306,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112395257</v>
+        <v>112395256</v>
       </c>
       <c r="B8" t="n">
-        <v>90816</v>
+        <v>93307</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1318,25 +1318,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>788</v>
+        <v>2671</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>333022</v>
+        <v>333013</v>
       </c>
       <c r="R8" t="n">
-        <v>6626625</v>
+        <v>6626631</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
